--- a/results/CNN Models/200images_per_class/Our_CNN_Model/result_for_Our_CNN_Model.xlsx
+++ b/results/CNN Models/200images_per_class/Our_CNN_Model/result_for_Our_CNN_Model.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9844357976653697</v>
+        <v>0.9960629921259843</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9921568627450981</v>
+        <v>0.9980276134122288</v>
       </c>
       <c r="E2" t="n">
         <v>253</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9271523178807947</v>
+        <v>0.9362416107382551</v>
       </c>
       <c r="C3" t="n">
-        <v>0.546875</v>
+        <v>0.544921875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.687960687960688</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="E3" t="n">
         <v>512</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5571428571428572</v>
+        <v>0.6554621848739496</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7155963302752294</v>
+        <v>0.7918781725888325</v>
       </c>
       <c r="E4" t="n">
         <v>78</v>
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9078771695594126</v>
+        <v>0.9144385026737968</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9941520467836257</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9490579204466155</v>
+        <v>0.9553072625698324</v>
       </c>
       <c r="E5" t="n">
         <v>684</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.148936170212766</v>
+        <v>0.1409395973154362</v>
       </c>
       <c r="C6" t="n">
-        <v>0.358974358974359</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2234042553191489</v>
       </c>
       <c r="E6" t="n">
         <v>39</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8840864440078585</v>
+        <v>0.7842809364548495</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9164969450101833</v>
+        <v>0.955193482688391</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9</v>
+        <v>0.8613406795224977</v>
       </c>
       <c r="E7" t="n">
         <v>491</v>
@@ -579,10 +579,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0.9895833333333334</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.9947643979057592</v>
       </c>
       <c r="E8" t="n">
         <v>96</v>
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4893617021276596</v>
+        <v>0.618421052631579</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9787234042553191</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6524822695035462</v>
+        <v>0.7642276422764228</v>
       </c>
       <c r="E9" t="n">
         <v>47</v>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7959183673469388</v>
+        <v>0.7596153846153846</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9873417721518988</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8813559322033898</v>
+        <v>0.8633879781420765</v>
       </c>
       <c r="E10" t="n">
         <v>79</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9172661870503597</v>
+        <v>0.9886363636363636</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7544378698224852</v>
+        <v>0.514792899408284</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8279220779220779</v>
+        <v>0.6770428015564203</v>
       </c>
       <c r="E11" t="n">
         <v>338</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8521207489491784</v>
+        <v>0.8326327856324035</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8521207489491784</v>
+        <v>0.8326327856324035</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8521207489491784</v>
+        <v>0.8326327856324035</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8521207489491784</v>
+        <v>0.8326327856324035</v>
       </c>
     </row>
     <row r="13">
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7612177012994017</v>
+        <v>0.77940986250656</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8537001396997871</v>
+        <v>0.8542953128891547</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7817058396846118</v>
+        <v>0.7818269692182108</v>
       </c>
       <c r="E13" t="n">
         <v>2617</v>
@@ -690,13 +690,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8865180922008684</v>
+        <v>0.885660950636962</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8521207489491784</v>
+        <v>0.8326327856324035</v>
       </c>
       <c r="D14" t="n">
-        <v>0.853827154689156</v>
+        <v>0.8332074897028396</v>
       </c>
       <c r="E14" t="n">
         <v>2617</v>
